--- a/result.xlsx
+++ b/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>CVE编号</t>
   </si>
@@ -46,64 +46,19 @@
     <t>cost</t>
   </si>
   <si>
-    <t>cve-2014-8884</t>
-  </si>
-  <si>
-    <t>linux-3.15.8</t>
-  </si>
-  <si>
-    <t>ttusbdecfe_dvbs_diseqc_send_master_cmd</t>
-  </si>
-  <si>
-    <t>linux/linux-3.15.8/drivers/media/usb/ttusb-dec/ttusbdecfe.c</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>cve-2014-8369</t>
-  </si>
-  <si>
-    <t>linux-3.17.2</t>
-  </si>
-  <si>
-    <t>kvm_pin_pages</t>
-  </si>
-  <si>
-    <t>linux/linux-3.17.2/virt/kvm/iommu.c</t>
-  </si>
-  <si>
-    <t>cve-2014-8133</t>
-  </si>
-  <si>
-    <t>do_set_thread_area</t>
-  </si>
-  <si>
-    <t>linux/linux-3.15.8/arch/x86/kernel/tls.c</t>
-  </si>
-  <si>
-    <t>cve-2014-8160</t>
-  </si>
-  <si>
-    <t>generic_new</t>
-  </si>
-  <si>
-    <t>linux/linux-3.15.8/net/netfilter/nf_conntrack_proto_generic.c</t>
-  </si>
-  <si>
-    <t>kvm_iommu_map_pages</t>
-  </si>
-  <si>
-    <t>cve-2014-8709</t>
-  </si>
-  <si>
-    <t>linux-3.10.10</t>
-  </si>
-  <si>
-    <t>ieee80211_fragment</t>
-  </si>
-  <si>
-    <t>linux/linux-3.10.10/net/mac80211/tx.c</t>
+    <t>cve-2013-0869</t>
+  </si>
+  <si>
+    <t>ffmpeg-1.0.6</t>
+  </si>
+  <si>
+    <t>field_end</t>
+  </si>
+  <si>
+    <t>ffmpeg/ffmpeg-1.0.6/libavcodec/h264.c</t>
+  </si>
+  <si>
+    <t>success</t>
   </si>
 </sst>
 </file>
@@ -440,7 +395,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,166 +448,23 @@
       <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="n">
-        <v>48.38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" t="n">
-        <v>50.43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" t="n">
-        <v>51.27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" t="n">
-        <v>54.93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s"/>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" t="n">
-        <v>56.04</v>
+        <v>70.47</v>
       </c>
     </row>
   </sheetData>
